--- a/src/output/results6.xlsx
+++ b/src/output/results6.xlsx
@@ -346,2922 +346,2922 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>5235.0</v>
+        <v>3013.0</v>
       </c>
       <c r="B1" t="n">
-        <v>1266.0</v>
+        <v>1121.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5187.0</v>
+        <v>3680.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1241.0</v>
+        <v>1106.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4533.0</v>
+        <v>3306.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1377.0</v>
+        <v>1156.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4063.0</v>
+        <v>3081.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1878.0</v>
+        <v>1338.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3701.0</v>
+        <v>2872.0</v>
       </c>
       <c r="B5" t="n">
-        <v>1999.0</v>
+        <v>1364.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3593.0</v>
+        <v>3562.0</v>
       </c>
       <c r="B6" t="n">
-        <v>1817.0</v>
+        <v>1255.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3275.0</v>
+        <v>3218.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1746.0</v>
+        <v>1206.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2952.0</v>
+        <v>2468.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1540.0</v>
+        <v>1191.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3023.0</v>
+        <v>2436.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1511.0</v>
+        <v>1248.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2867.0</v>
+        <v>2367.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1500.0</v>
+        <v>1149.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2915.0</v>
+        <v>2286.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1361.0</v>
+        <v>1068.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2708.0</v>
+        <v>2359.0</v>
       </c>
       <c r="B12" t="n">
-        <v>1330.0</v>
+        <v>988.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2811.0</v>
+        <v>2780.0</v>
       </c>
       <c r="B13" t="n">
-        <v>1254.0</v>
+        <v>1031.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2757.0</v>
+        <v>2648.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1261.0</v>
+        <v>980.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2637.0</v>
+        <v>2387.0</v>
       </c>
       <c r="B15" t="n">
-        <v>1183.0</v>
+        <v>965.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2767.0</v>
+        <v>2256.0</v>
       </c>
       <c r="B16" t="n">
-        <v>1222.0</v>
+        <v>1011.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2662.0</v>
+        <v>2234.0</v>
       </c>
       <c r="B17" t="n">
-        <v>1129.0</v>
+        <v>972.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2643.0</v>
+        <v>2240.0</v>
       </c>
       <c r="B18" t="n">
-        <v>1113.0</v>
+        <v>962.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2628.0</v>
+        <v>2192.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1171.0</v>
+        <v>885.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2634.0</v>
+        <v>2666.0</v>
       </c>
       <c r="B20" t="n">
-        <v>1124.0</v>
+        <v>939.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2625.0</v>
+        <v>2627.0</v>
       </c>
       <c r="B21" t="n">
-        <v>1103.0</v>
+        <v>910.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2585.0</v>
+        <v>2139.0</v>
       </c>
       <c r="B22" t="n">
-        <v>1126.0</v>
+        <v>910.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2575.0</v>
+        <v>2257.0</v>
       </c>
       <c r="B23" t="n">
-        <v>1122.0</v>
+        <v>939.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2586.0</v>
+        <v>2270.0</v>
       </c>
       <c r="B24" t="n">
-        <v>1080.0</v>
+        <v>976.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2582.0</v>
+        <v>2314.0</v>
       </c>
       <c r="B25" t="n">
-        <v>1035.0</v>
+        <v>883.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2615.0</v>
+        <v>2249.0</v>
       </c>
       <c r="B26" t="n">
-        <v>1112.0</v>
+        <v>937.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2597.0</v>
+        <v>2719.0</v>
       </c>
       <c r="B27" t="n">
-        <v>1102.0</v>
+        <v>950.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2532.0</v>
+        <v>2653.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1121.0</v>
+        <v>941.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2519.0</v>
+        <v>2251.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1098.0</v>
+        <v>891.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2529.0</v>
+        <v>2204.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1087.0</v>
+        <v>959.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2542.0</v>
+        <v>2291.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1062.0</v>
+        <v>956.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3129.0</v>
+        <v>3204.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1053.0</v>
+        <v>965.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3197.0</v>
+        <v>3173.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1073.0</v>
+        <v>1002.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3044.0</v>
+        <v>3342.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1134.0</v>
+        <v>1049.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3089.0</v>
+        <v>3301.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1219.0</v>
+        <v>1214.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4157.0</v>
+        <v>4326.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1361.0</v>
+        <v>1323.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4176.0</v>
+        <v>4312.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1415.0</v>
+        <v>1289.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4476.0</v>
+        <v>4815.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1467.0</v>
+        <v>1554.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5235.0</v>
+        <v>5372.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1700.0</v>
+        <v>1713.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5827.0</v>
+        <v>5926.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1879.0</v>
+        <v>1880.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5210.0</v>
+        <v>6144.0</v>
       </c>
       <c r="B41" t="n">
-        <v>2021.0</v>
+        <v>2139.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5036.0</v>
+        <v>6330.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2277.0</v>
+        <v>2394.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7050.0</v>
+        <v>7496.0</v>
       </c>
       <c r="B43" t="n">
-        <v>2469.0</v>
+        <v>2555.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6441.0</v>
+        <v>7041.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2372.0</v>
+        <v>2681.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7190.0</v>
+        <v>7775.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2551.0</v>
+        <v>2868.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7902.0</v>
+        <v>8471.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2856.0</v>
+        <v>3027.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8343.0</v>
+        <v>9057.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2995.0</v>
+        <v>3253.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7641.0</v>
+        <v>9632.0</v>
       </c>
       <c r="B48" t="n">
-        <v>3255.0</v>
+        <v>3436.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6974.0</v>
+        <v>9694.0</v>
       </c>
       <c r="B49" t="n">
-        <v>3596.0</v>
+        <v>3735.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10121.0</v>
+        <v>10576.0</v>
       </c>
       <c r="B50" t="n">
-        <v>3606.0</v>
+        <v>3944.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8953.0</v>
+        <v>10086.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3486.0</v>
+        <v>4144.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9492.0</v>
+        <v>10635.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3736.0</v>
+        <v>4322.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10729.0</v>
+        <v>11628.0</v>
       </c>
       <c r="B53" t="n">
-        <v>4177.0</v>
+        <v>4505.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11284.0</v>
+        <v>12181.0</v>
       </c>
       <c r="B54" t="n">
-        <v>4088.0</v>
+        <v>4727.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>10005.0</v>
+        <v>13110.0</v>
       </c>
       <c r="B55" t="n">
-        <v>4243.0</v>
+        <v>4923.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9348.0</v>
+        <v>13494.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4842.0</v>
+        <v>5163.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>13049.0</v>
+        <v>13906.0</v>
       </c>
       <c r="B57" t="n">
-        <v>4960.0</v>
+        <v>5543.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11847.0</v>
+        <v>12996.0</v>
       </c>
       <c r="B58" t="n">
-        <v>4640.0</v>
+        <v>5550.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>12206.0</v>
+        <v>13858.0</v>
       </c>
       <c r="B59" t="n">
-        <v>4950.0</v>
+        <v>5635.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>13542.0</v>
+        <v>14920.0</v>
       </c>
       <c r="B60" t="n">
-        <v>5382.0</v>
+        <v>5902.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>14126.0</v>
+        <v>15454.0</v>
       </c>
       <c r="B61" t="n">
-        <v>5345.0</v>
+        <v>5992.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>12357.0</v>
+        <v>16257.0</v>
       </c>
       <c r="B62" t="n">
-        <v>5644.0</v>
+        <v>6333.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>11360.0</v>
+        <v>16843.0</v>
       </c>
       <c r="B63" t="n">
-        <v>6079.0</v>
+        <v>6858.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>15742.0</v>
+        <v>16945.0</v>
       </c>
       <c r="B64" t="n">
-        <v>6169.0</v>
+        <v>6890.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>13945.0</v>
+        <v>15625.0</v>
       </c>
       <c r="B65" t="n">
-        <v>5904.0</v>
+        <v>6850.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>14318.0</v>
+        <v>16463.0</v>
       </c>
       <c r="B66" t="n">
-        <v>6099.0</v>
+        <v>7065.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>15271.0</v>
+        <v>17543.0</v>
       </c>
       <c r="B67" t="n">
-        <v>6501.0</v>
+        <v>7433.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>16259.0</v>
+        <v>18042.0</v>
       </c>
       <c r="B68" t="n">
-        <v>6281.0</v>
+        <v>7218.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>13671.0</v>
+        <v>19129.0</v>
       </c>
       <c r="B69" t="n">
-        <v>6473.0</v>
+        <v>7394.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>12835.0</v>
+        <v>19760.0</v>
       </c>
       <c r="B70" t="n">
-        <v>6926.0</v>
+        <v>7920.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>17680.0</v>
+        <v>19400.0</v>
       </c>
       <c r="B71" t="n">
-        <v>7211.0</v>
+        <v>7976.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>15181.0</v>
+        <v>17462.0</v>
       </c>
       <c r="B72" t="n">
-        <v>6697.0</v>
+        <v>8160.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>15708.0</v>
+        <v>18568.0</v>
       </c>
       <c r="B73" t="n">
-        <v>6934.0</v>
+        <v>8322.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>16875.0</v>
+        <v>19537.0</v>
       </c>
       <c r="B74" t="n">
-        <v>7349.0</v>
+        <v>8430.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>17382.0</v>
+        <v>19995.0</v>
       </c>
       <c r="B75" t="n">
-        <v>6996.0</v>
+        <v>8202.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>14957.0</v>
+        <v>21288.0</v>
       </c>
       <c r="B76" t="n">
-        <v>7128.0</v>
+        <v>8471.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>13708.0</v>
+        <v>21789.0</v>
       </c>
       <c r="B77" t="n">
-        <v>7518.0</v>
+        <v>8810.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>18611.0</v>
+        <v>20968.0</v>
       </c>
       <c r="B78" t="n">
-        <v>7767.0</v>
+        <v>8858.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>15720.0</v>
+        <v>18527.0</v>
       </c>
       <c r="B79" t="n">
-        <v>7163.0</v>
+        <v>8900.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>16211.0</v>
+        <v>19586.0</v>
       </c>
       <c r="B80" t="n">
-        <v>7066.0</v>
+        <v>9279.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>17046.0</v>
+        <v>20169.0</v>
       </c>
       <c r="B81" t="n">
-        <v>7569.0</v>
+        <v>8925.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>17324.0</v>
+        <v>20597.0</v>
       </c>
       <c r="B82" t="n">
-        <v>7295.0</v>
+        <v>8622.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>14675.0</v>
+        <v>21876.0</v>
       </c>
       <c r="B83" t="n">
-        <v>7256.0</v>
+        <v>8892.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>13452.0</v>
+        <v>22184.0</v>
       </c>
       <c r="B84" t="n">
-        <v>7768.0</v>
+        <v>9189.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>18242.0</v>
+        <v>20900.0</v>
       </c>
       <c r="B85" t="n">
-        <v>7710.0</v>
+        <v>9094.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>16027.0</v>
+        <v>18920.0</v>
       </c>
       <c r="B86" t="n">
-        <v>7219.0</v>
+        <v>9243.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>16130.0</v>
+        <v>19356.0</v>
       </c>
       <c r="B87" t="n">
-        <v>7296.0</v>
+        <v>8986.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>17087.0</v>
+        <v>20060.0</v>
       </c>
       <c r="B88" t="n">
-        <v>7530.0</v>
+        <v>8952.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>17489.0</v>
+        <v>19859.0</v>
       </c>
       <c r="B89" t="n">
-        <v>7312.0</v>
+        <v>8693.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>14657.0</v>
+        <v>21372.0</v>
       </c>
       <c r="B90" t="n">
-        <v>7269.0</v>
+        <v>8621.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>13223.0</v>
+        <v>21643.0</v>
       </c>
       <c r="B91" t="n">
-        <v>7679.0</v>
+        <v>8961.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>18125.0</v>
+        <v>20496.0</v>
       </c>
       <c r="B92" t="n">
-        <v>7827.0</v>
+        <v>8881.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>15692.0</v>
+        <v>18194.0</v>
       </c>
       <c r="B93" t="n">
-        <v>7177.0</v>
+        <v>8879.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>16454.0</v>
+        <v>18810.0</v>
       </c>
       <c r="B94" t="n">
-        <v>7441.0</v>
+        <v>9066.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>16754.0</v>
+        <v>19352.0</v>
       </c>
       <c r="B95" t="n">
-        <v>7321.0</v>
+        <v>8592.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>17458.0</v>
+        <v>19085.0</v>
       </c>
       <c r="B96" t="n">
-        <v>7352.0</v>
+        <v>8301.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>12367.0</v>
+        <v>21006.0</v>
       </c>
       <c r="B97" t="n">
-        <v>7210.0</v>
+        <v>8408.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>13150.0</v>
+        <v>19462.0</v>
       </c>
       <c r="B98" t="n">
-        <v>7733.0</v>
+        <v>8504.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>13932.0</v>
+        <v>14335.0</v>
       </c>
       <c r="B99" t="n">
-        <v>7468.0</v>
+        <v>8394.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>12090.0</v>
+        <v>12738.0</v>
       </c>
       <c r="B100" t="n">
-        <v>6845.0</v>
+        <v>8232.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>11580.0</v>
+        <v>12416.0</v>
       </c>
       <c r="B101" t="n">
-        <v>6528.0</v>
+        <v>7893.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>11402.0</v>
+        <v>11965.0</v>
       </c>
       <c r="B102" t="n">
-        <v>6210.0</v>
+        <v>6850.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>11058.0</v>
+        <v>11573.0</v>
       </c>
       <c r="B103" t="n">
-        <v>5562.0</v>
+        <v>5815.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9598.0</v>
+        <v>13979.0</v>
       </c>
       <c r="B104" t="n">
-        <v>5157.0</v>
+        <v>5544.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>8684.0</v>
+        <v>12625.0</v>
       </c>
       <c r="B105" t="n">
-        <v>5198.0</v>
+        <v>5275.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>11811.0</v>
+        <v>12536.0</v>
       </c>
       <c r="B106" t="n">
-        <v>5077.0</v>
+        <v>5116.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10602.0</v>
+        <v>11113.0</v>
       </c>
       <c r="B107" t="n">
-        <v>4848.0</v>
+        <v>5224.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>10802.0</v>
+        <v>11782.0</v>
       </c>
       <c r="B108" t="n">
-        <v>4834.0</v>
+        <v>5360.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>11458.0</v>
+        <v>12316.0</v>
       </c>
       <c r="B109" t="n">
-        <v>4813.0</v>
+        <v>5169.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>12288.0</v>
+        <v>12663.0</v>
       </c>
       <c r="B110" t="n">
-        <v>4791.0</v>
+        <v>4962.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>10207.0</v>
+        <v>13303.0</v>
       </c>
       <c r="B111" t="n">
-        <v>4972.0</v>
+        <v>5257.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>9744.0</v>
+        <v>12813.0</v>
       </c>
       <c r="B112" t="n">
-        <v>5411.0</v>
+        <v>5420.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>13727.0</v>
+        <v>13723.0</v>
       </c>
       <c r="B113" t="n">
-        <v>5471.0</v>
+        <v>5356.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>12489.0</v>
+        <v>12553.0</v>
       </c>
       <c r="B114" t="n">
-        <v>5442.0</v>
+        <v>5580.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>12824.0</v>
+        <v>12901.0</v>
       </c>
       <c r="B115" t="n">
-        <v>5368.0</v>
+        <v>5619.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>13938.0</v>
+        <v>13422.0</v>
       </c>
       <c r="B116" t="n">
-        <v>5487.0</v>
+        <v>5613.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>14634.0</v>
+        <v>13853.0</v>
       </c>
       <c r="B117" t="n">
-        <v>5604.0</v>
+        <v>5460.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>12713.0</v>
+        <v>14436.0</v>
       </c>
       <c r="B118" t="n">
-        <v>5982.0</v>
+        <v>5695.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>11827.0</v>
+        <v>14367.0</v>
       </c>
       <c r="B119" t="n">
-        <v>6479.0</v>
+        <v>6021.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>16686.0</v>
+        <v>15037.0</v>
       </c>
       <c r="B120" t="n">
-        <v>6729.0</v>
+        <v>5902.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>15183.0</v>
+        <v>13766.0</v>
       </c>
       <c r="B121" t="n">
-        <v>6530.0</v>
+        <v>6142.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>15939.0</v>
+        <v>14131.0</v>
       </c>
       <c r="B122" t="n">
-        <v>6530.0</v>
+        <v>6231.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>16876.0</v>
+        <v>14499.0</v>
       </c>
       <c r="B123" t="n">
-        <v>6742.0</v>
+        <v>6165.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>18142.0</v>
+        <v>15260.0</v>
       </c>
       <c r="B124" t="n">
-        <v>7018.0</v>
+        <v>6062.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>16079.0</v>
+        <v>15700.0</v>
       </c>
       <c r="B125" t="n">
-        <v>7340.0</v>
+        <v>6242.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>14465.0</v>
+        <v>15662.0</v>
       </c>
       <c r="B126" t="n">
-        <v>8198.0</v>
+        <v>6547.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>20461.0</v>
+        <v>16515.0</v>
       </c>
       <c r="B127" t="n">
-        <v>8183.0</v>
+        <v>6763.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>18666.0</v>
+        <v>15253.0</v>
       </c>
       <c r="B128" t="n">
-        <v>8137.0</v>
+        <v>6646.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>19823.0</v>
+        <v>15479.0</v>
       </c>
       <c r="B129" t="n">
-        <v>8130.0</v>
+        <v>6784.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>20836.0</v>
+        <v>16044.0</v>
       </c>
       <c r="B130" t="n">
-        <v>8333.0</v>
+        <v>6748.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>22603.0</v>
+        <v>16541.0</v>
       </c>
       <c r="B131" t="n">
-        <v>8646.0</v>
+        <v>6800.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>19890.0</v>
+        <v>17352.0</v>
       </c>
       <c r="B132" t="n">
-        <v>9337.0</v>
+        <v>7083.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>17996.0</v>
+        <v>17799.0</v>
       </c>
       <c r="B133" t="n">
-        <v>10098.0</v>
+        <v>7197.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>24507.0</v>
+        <v>17950.0</v>
       </c>
       <c r="B134" t="n">
-        <v>10023.0</v>
+        <v>7423.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>22385.0</v>
+        <v>16522.0</v>
       </c>
       <c r="B135" t="n">
-        <v>9820.0</v>
+        <v>7428.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>23573.0</v>
+        <v>16968.0</v>
       </c>
       <c r="B136" t="n">
-        <v>10194.0</v>
+        <v>7457.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>24804.0</v>
+        <v>17604.0</v>
       </c>
       <c r="B137" t="n">
-        <v>10233.0</v>
+        <v>7453.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>26740.0</v>
+        <v>17858.0</v>
       </c>
       <c r="B138" t="n">
-        <v>10607.0</v>
+        <v>7562.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>23280.0</v>
+        <v>18928.0</v>
       </c>
       <c r="B139" t="n">
-        <v>11447.0</v>
+        <v>7779.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>21219.0</v>
+        <v>18890.0</v>
       </c>
       <c r="B140" t="n">
-        <v>12054.0</v>
+        <v>8077.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>28508.0</v>
+        <v>19591.0</v>
       </c>
       <c r="B141" t="n">
-        <v>11996.0</v>
+        <v>8101.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>25318.0</v>
+        <v>18098.0</v>
       </c>
       <c r="B142" t="n">
-        <v>11901.0</v>
+        <v>8249.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>26656.0</v>
+        <v>18648.0</v>
       </c>
       <c r="B143" t="n">
-        <v>11704.0</v>
+        <v>8343.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>27622.0</v>
+        <v>19295.0</v>
       </c>
       <c r="B144" t="n">
-        <v>11422.0</v>
+        <v>8208.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>29408.0</v>
+        <v>19674.0</v>
       </c>
       <c r="B145" t="n">
-        <v>12147.0</v>
+        <v>8436.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>25704.0</v>
+        <v>20854.0</v>
       </c>
       <c r="B146" t="n">
-        <v>12948.0</v>
+        <v>8408.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>23011.0</v>
+        <v>20739.0</v>
       </c>
       <c r="B147" t="n">
-        <v>13612.0</v>
+        <v>8871.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>30179.0</v>
+        <v>21695.0</v>
       </c>
       <c r="B148" t="n">
-        <v>13266.0</v>
+        <v>8953.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>26933.0</v>
+        <v>19732.0</v>
       </c>
       <c r="B149" t="n">
-        <v>13013.0</v>
+        <v>9118.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>22573.0</v>
+        <v>15509.0</v>
       </c>
       <c r="B150" t="n">
-        <v>12500.0</v>
+        <v>9065.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>23156.0</v>
+        <v>15520.0</v>
       </c>
       <c r="B151" t="n">
-        <v>12025.0</v>
+        <v>8889.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>22631.0</v>
+        <v>15256.0</v>
       </c>
       <c r="B152" t="n">
-        <v>11677.0</v>
+        <v>8924.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>17647.0</v>
+        <v>20023.0</v>
       </c>
       <c r="B153" t="n">
-        <v>11902.0</v>
+        <v>8339.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>17260.0</v>
+        <v>17596.0</v>
       </c>
       <c r="B154" t="n">
-        <v>11448.0</v>
+        <v>7943.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>13868.0</v>
+        <v>15065.0</v>
       </c>
       <c r="B155" t="n">
-        <v>10290.0</v>
+        <v>7533.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>11288.0</v>
+        <v>12570.0</v>
       </c>
       <c r="B156" t="n">
-        <v>9059.0</v>
+        <v>7485.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>14633.0</v>
+        <v>14591.0</v>
       </c>
       <c r="B157" t="n">
-        <v>7729.0</v>
+        <v>6935.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>12015.0</v>
+        <v>13030.0</v>
       </c>
       <c r="B158" t="n">
-        <v>6614.0</v>
+        <v>6335.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>10596.0</v>
+        <v>10316.0</v>
       </c>
       <c r="B159" t="n">
-        <v>6306.0</v>
+        <v>6088.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>9034.0</v>
+        <v>11563.0</v>
       </c>
       <c r="B160" t="n">
-        <v>5965.0</v>
+        <v>6259.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>9196.0</v>
+        <v>11250.0</v>
       </c>
       <c r="B161" t="n">
-        <v>5884.0</v>
+        <v>5901.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>11416.0</v>
+        <v>11538.0</v>
       </c>
       <c r="B162" t="n">
-        <v>5891.0</v>
+        <v>5772.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>12506.0</v>
+        <v>13423.0</v>
       </c>
       <c r="B163" t="n">
-        <v>5542.0</v>
+        <v>5640.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>11623.0</v>
+        <v>12848.0</v>
       </c>
       <c r="B164" t="n">
-        <v>5168.0</v>
+        <v>5404.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>12506.0</v>
+        <v>13491.0</v>
       </c>
       <c r="B165" t="n">
-        <v>4670.0</v>
+        <v>5512.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>13538.0</v>
+        <v>14581.0</v>
       </c>
       <c r="B166" t="n">
-        <v>4815.0</v>
+        <v>5601.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>11989.0</v>
+        <v>16481.0</v>
       </c>
       <c r="B167" t="n">
-        <v>5518.0</v>
+        <v>5954.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>11288.0</v>
+        <v>15587.0</v>
       </c>
       <c r="B168" t="n">
-        <v>6060.0</v>
+        <v>6451.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>16024.0</v>
+        <v>17400.0</v>
       </c>
       <c r="B169" t="n">
-        <v>6132.0</v>
+        <v>6927.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>14852.0</v>
+        <v>16536.0</v>
       </c>
       <c r="B170" t="n">
-        <v>6144.0</v>
+        <v>7140.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>15661.0</v>
+        <v>17477.0</v>
       </c>
       <c r="B171" t="n">
-        <v>6311.0</v>
+        <v>7414.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>16459.0</v>
+        <v>18115.0</v>
       </c>
       <c r="B172" t="n">
-        <v>6063.0</v>
+        <v>7554.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>17939.0</v>
+        <v>19285.0</v>
       </c>
       <c r="B173" t="n">
-        <v>6601.0</v>
+        <v>7998.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>16137.0</v>
+        <v>22304.0</v>
       </c>
       <c r="B174" t="n">
-        <v>7511.0</v>
+        <v>8484.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>14736.0</v>
+        <v>22371.0</v>
       </c>
       <c r="B175" t="n">
-        <v>8011.0</v>
+        <v>9048.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>20821.0</v>
+        <v>22121.0</v>
       </c>
       <c r="B176" t="n">
-        <v>8148.0</v>
+        <v>9666.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>18816.0</v>
+        <v>20644.0</v>
       </c>
       <c r="B177" t="n">
-        <v>7939.0</v>
+        <v>9878.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>20680.0</v>
+        <v>22197.0</v>
       </c>
       <c r="B178" t="n">
-        <v>8165.0</v>
+        <v>9849.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>21484.0</v>
+        <v>23385.0</v>
       </c>
       <c r="B179" t="n">
-        <v>8148.0</v>
+        <v>10107.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>23517.0</v>
+        <v>24890.0</v>
       </c>
       <c r="B180" t="n">
-        <v>8917.0</v>
+        <v>10498.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>21055.0</v>
+        <v>27804.0</v>
       </c>
       <c r="B181" t="n">
-        <v>9891.0</v>
+        <v>11366.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>19133.0</v>
+        <v>28701.0</v>
       </c>
       <c r="B182" t="n">
-        <v>10555.0</v>
+        <v>11784.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>26686.0</v>
+        <v>27203.0</v>
       </c>
       <c r="B183" t="n">
-        <v>10606.0</v>
+        <v>12208.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>23869.0</v>
+        <v>25625.0</v>
       </c>
       <c r="B184" t="n">
-        <v>10425.0</v>
+        <v>12728.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>25361.0</v>
+        <v>27141.0</v>
       </c>
       <c r="B185" t="n">
-        <v>10583.0</v>
+        <v>12722.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>26306.0</v>
+        <v>28081.0</v>
       </c>
       <c r="B186" t="n">
-        <v>10418.0</v>
+        <v>12650.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>28305.0</v>
+        <v>29370.0</v>
       </c>
       <c r="B187" t="n">
-        <v>11072.0</v>
+        <v>13297.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>25233.0</v>
+        <v>33455.0</v>
       </c>
       <c r="B188" t="n">
-        <v>12281.0</v>
+        <v>13938.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>22749.0</v>
+        <v>34512.0</v>
       </c>
       <c r="B189" t="n">
-        <v>13069.0</v>
+        <v>14318.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>30302.0</v>
+        <v>30482.0</v>
       </c>
       <c r="B190" t="n">
-        <v>12649.0</v>
+        <v>14661.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>27182.0</v>
+        <v>28508.0</v>
       </c>
       <c r="B191" t="n">
-        <v>12522.0</v>
+        <v>15165.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>28518.0</v>
+        <v>30130.0</v>
       </c>
       <c r="B192" t="n">
-        <v>12142.0</v>
+        <v>14714.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>29070.0</v>
+        <v>30372.0</v>
       </c>
       <c r="B193" t="n">
-        <v>12204.0</v>
+        <v>14569.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>31220.0</v>
+        <v>31700.0</v>
       </c>
       <c r="B194" t="n">
-        <v>12709.0</v>
+        <v>14900.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>26963.0</v>
+        <v>35670.0</v>
       </c>
       <c r="B195" t="n">
-        <v>13763.0</v>
+        <v>15458.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>24539.0</v>
+        <v>37074.0</v>
       </c>
       <c r="B196" t="n">
-        <v>14639.0</v>
+        <v>15729.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>32414.0</v>
+        <v>31321.0</v>
       </c>
       <c r="B197" t="n">
-        <v>13904.0</v>
+        <v>15973.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>28656.0</v>
+        <v>29385.0</v>
       </c>
       <c r="B198" t="n">
-        <v>13762.0</v>
+        <v>16424.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>29693.0</v>
+        <v>30660.0</v>
       </c>
       <c r="B199" t="n">
-        <v>13204.0</v>
+        <v>15888.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>30267.0</v>
+        <v>31005.0</v>
       </c>
       <c r="B200" t="n">
-        <v>12811.0</v>
+        <v>15000.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>31415.0</v>
+        <v>31243.0</v>
       </c>
       <c r="B201" t="n">
-        <v>13243.0</v>
+        <v>15336.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>27641.0</v>
+        <v>35605.0</v>
       </c>
       <c r="B202" t="n">
-        <v>14538.0</v>
+        <v>15837.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>25116.0</v>
+        <v>36566.0</v>
       </c>
       <c r="B203" t="n">
-        <v>14988.0</v>
+        <v>15693.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>32332.0</v>
+        <v>30200.0</v>
       </c>
       <c r="B204" t="n">
-        <v>14356.0</v>
+        <v>15835.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>28303.0</v>
+        <v>27675.0</v>
       </c>
       <c r="B205" t="n">
-        <v>13878.0</v>
+        <v>16002.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>28603.0</v>
+        <v>28387.0</v>
       </c>
       <c r="B206" t="n">
-        <v>13364.0</v>
+        <v>14838.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>20899.0</v>
+        <v>31831.0</v>
       </c>
       <c r="B207" t="n">
-        <v>12909.0</v>
+        <v>14419.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>29994.0</v>
+        <v>29028.0</v>
       </c>
       <c r="B208" t="n">
-        <v>12730.0</v>
+        <v>14111.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>21982.0</v>
+        <v>27485.0</v>
       </c>
       <c r="B209" t="n">
-        <v>13034.0</v>
+        <v>14535.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>19610.0</v>
+        <v>27268.0</v>
       </c>
       <c r="B210" t="n">
-        <v>13223.0</v>
+        <v>14004.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>26243.0</v>
+        <v>25740.0</v>
       </c>
       <c r="B211" t="n">
-        <v>11986.0</v>
+        <v>13139.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>22583.0</v>
+        <v>22758.0</v>
       </c>
       <c r="B212" t="n">
-        <v>10953.0</v>
+        <v>12912.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>23367.0</v>
+        <v>24527.0</v>
       </c>
       <c r="B213" t="n">
-        <v>10895.0</v>
+        <v>12683.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>24000.0</v>
+        <v>24563.0</v>
       </c>
       <c r="B214" t="n">
-        <v>10661.0</v>
+        <v>12045.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>25176.0</v>
+        <v>24448.0</v>
       </c>
       <c r="B215" t="n">
-        <v>10730.0</v>
+        <v>12065.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>21606.0</v>
+        <v>27932.0</v>
       </c>
       <c r="B216" t="n">
-        <v>11598.0</v>
+        <v>12558.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>19640.0</v>
+        <v>28337.0</v>
       </c>
       <c r="B217" t="n">
-        <v>11755.0</v>
+        <v>12214.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>26193.0</v>
+        <v>24166.0</v>
       </c>
       <c r="B218" t="n">
-        <v>11491.0</v>
+        <v>12387.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>22827.0</v>
+        <v>21992.0</v>
       </c>
       <c r="B219" t="n">
-        <v>10992.0</v>
+        <v>12572.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>16252.0</v>
+        <v>23904.0</v>
       </c>
       <c r="B220" t="n">
-        <v>10567.0</v>
+        <v>11772.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>22691.0</v>
+        <v>22142.0</v>
       </c>
       <c r="B221" t="n">
-        <v>9708.0</v>
+        <v>10703.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>20707.0</v>
+        <v>20234.0</v>
       </c>
       <c r="B222" t="n">
-        <v>9615.0</v>
+        <v>10940.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>17493.0</v>
+        <v>21936.0</v>
       </c>
       <c r="B223" t="n">
-        <v>10303.0</v>
+        <v>10858.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>15487.0</v>
+        <v>21656.0</v>
       </c>
       <c r="B224" t="n">
-        <v>10050.0</v>
+        <v>10563.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>21068.0</v>
+        <v>20341.0</v>
       </c>
       <c r="B225" t="n">
-        <v>9256.0</v>
+        <v>10006.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>19035.0</v>
+        <v>18539.0</v>
       </c>
       <c r="B226" t="n">
-        <v>8833.0</v>
+        <v>10145.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>19199.0</v>
+        <v>19328.0</v>
       </c>
       <c r="B227" t="n">
-        <v>8895.0</v>
+        <v>9680.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>19276.0</v>
+        <v>19534.0</v>
       </c>
       <c r="B228" t="n">
-        <v>8491.0</v>
+        <v>9531.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>20367.0</v>
+        <v>19531.0</v>
       </c>
       <c r="B229" t="n">
-        <v>8731.0</v>
+        <v>9618.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>17232.0</v>
+        <v>21963.0</v>
       </c>
       <c r="B230" t="n">
-        <v>9195.0</v>
+        <v>9542.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>16016.0</v>
+        <v>22234.0</v>
       </c>
       <c r="B231" t="n">
-        <v>9424.0</v>
+        <v>9675.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>21516.0</v>
+        <v>19815.0</v>
       </c>
       <c r="B232" t="n">
-        <v>9418.0</v>
+        <v>9550.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>19373.0</v>
+        <v>18125.0</v>
       </c>
       <c r="B233" t="n">
-        <v>8887.0</v>
+        <v>9770.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>15472.0</v>
+        <v>14097.0</v>
       </c>
       <c r="B234" t="n">
-        <v>8564.0</v>
+        <v>9239.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>15257.0</v>
+        <v>13593.0</v>
       </c>
       <c r="B235" t="n">
-        <v>8342.0</v>
+        <v>8439.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>15180.0</v>
+        <v>13218.0</v>
       </c>
       <c r="B236" t="n">
-        <v>8037.0</v>
+        <v>8160.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>12056.0</v>
+        <v>17832.0</v>
       </c>
       <c r="B237" t="n">
-        <v>8372.0</v>
+        <v>7712.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>12036.0</v>
+        <v>15538.0</v>
       </c>
       <c r="B238" t="n">
-        <v>8097.0</v>
+        <v>7193.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>13358.0</v>
+        <v>10940.0</v>
       </c>
       <c r="B239" t="n">
-        <v>7290.0</v>
+        <v>6967.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>11238.0</v>
+        <v>9787.0</v>
       </c>
       <c r="B240" t="n">
-        <v>6596.0</v>
+        <v>6397.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>10552.0</v>
+        <v>9307.0</v>
       </c>
       <c r="B241" t="n">
-        <v>5896.0</v>
+        <v>5864.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>10010.0</v>
+        <v>9036.0</v>
       </c>
       <c r="B242" t="n">
-        <v>5442.0</v>
+        <v>5318.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>10083.0</v>
+        <v>8726.0</v>
       </c>
       <c r="B243" t="n">
-        <v>5431.0</v>
+        <v>5278.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>8327.0</v>
+        <v>11006.0</v>
       </c>
       <c r="B244" t="n">
-        <v>5388.0</v>
+        <v>4882.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>8083.0</v>
+        <v>9900.0</v>
       </c>
       <c r="B245" t="n">
-        <v>5262.0</v>
+        <v>4492.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>10816.0</v>
+        <v>9364.0</v>
       </c>
       <c r="B246" t="n">
-        <v>5009.0</v>
+        <v>4403.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>9931.0</v>
+        <v>8890.0</v>
       </c>
       <c r="B247" t="n">
-        <v>4610.0</v>
+        <v>4146.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>9445.0</v>
+        <v>8719.0</v>
       </c>
       <c r="B248" t="n">
-        <v>4301.0</v>
+        <v>4062.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>9881.0</v>
+        <v>9097.0</v>
       </c>
       <c r="B249" t="n">
-        <v>4094.0</v>
+        <v>4168.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>10424.0</v>
+        <v>9784.0</v>
       </c>
       <c r="B250" t="n">
-        <v>4244.0</v>
+        <v>4176.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>8607.0</v>
+        <v>10843.0</v>
       </c>
       <c r="B251" t="n">
-        <v>4681.0</v>
+        <v>4345.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>8176.0</v>
+        <v>10200.0</v>
       </c>
       <c r="B252" t="n">
-        <v>4708.0</v>
+        <v>4358.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>11567.0</v>
+        <v>10438.0</v>
       </c>
       <c r="B253" t="n">
-        <v>4786.0</v>
+        <v>4370.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>10402.0</v>
+        <v>9855.0</v>
       </c>
       <c r="B254" t="n">
-        <v>4626.0</v>
+        <v>4388.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>10490.0</v>
+        <v>9943.0</v>
       </c>
       <c r="B255" t="n">
-        <v>4490.0</v>
+        <v>4467.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>10957.0</v>
+        <v>10330.0</v>
       </c>
       <c r="B256" t="n">
-        <v>4336.0</v>
+        <v>4417.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>10959.0</v>
+        <v>10638.0</v>
       </c>
       <c r="B257" t="n">
-        <v>4449.0</v>
+        <v>4599.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>9572.0</v>
+        <v>11654.0</v>
       </c>
       <c r="B258" t="n">
-        <v>4754.0</v>
+        <v>4757.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>8700.0</v>
+        <v>11426.0</v>
       </c>
       <c r="B259" t="n">
-        <v>5099.0</v>
+        <v>4896.0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>12687.0</v>
+        <v>11608.0</v>
       </c>
       <c r="B260" t="n">
-        <v>5255.0</v>
+        <v>4860.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>11221.0</v>
+        <v>10638.0</v>
       </c>
       <c r="B261" t="n">
-        <v>5065.0</v>
+        <v>4760.0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>11456.0</v>
+        <v>10736.0</v>
       </c>
       <c r="B262" t="n">
-        <v>4859.0</v>
+        <v>4914.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>11496.0</v>
+        <v>11213.0</v>
       </c>
       <c r="B263" t="n">
-        <v>4822.0</v>
+        <v>4938.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>11734.0</v>
+        <v>11439.0</v>
       </c>
       <c r="B264" t="n">
-        <v>4833.0</v>
+        <v>5025.0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>10277.0</v>
+        <v>12257.0</v>
       </c>
       <c r="B265" t="n">
-        <v>5186.0</v>
+        <v>5055.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>9232.0</v>
+        <v>12273.0</v>
       </c>
       <c r="B266" t="n">
-        <v>5419.0</v>
+        <v>5209.0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>13365.0</v>
+        <v>12181.0</v>
       </c>
       <c r="B267" t="n">
-        <v>5614.0</v>
+        <v>5238.0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>11966.0</v>
+        <v>11359.0</v>
       </c>
       <c r="B268" t="n">
-        <v>5360.0</v>
+        <v>5286.0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>11934.0</v>
+        <v>11480.0</v>
       </c>
       <c r="B269" t="n">
-        <v>5151.0</v>
+        <v>5199.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>12125.0</v>
+        <v>11380.0</v>
       </c>
       <c r="B270" t="n">
-        <v>5181.0</v>
+        <v>5197.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>12625.0</v>
+        <v>11823.0</v>
       </c>
       <c r="B271" t="n">
-        <v>5127.0</v>
+        <v>5281.0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>10547.0</v>
+        <v>12570.0</v>
       </c>
       <c r="B272" t="n">
-        <v>5493.0</v>
+        <v>5373.0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>9675.0</v>
+        <v>12733.0</v>
       </c>
       <c r="B273" t="n">
-        <v>5802.0</v>
+        <v>5457.0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>9383.0</v>
+        <v>11867.0</v>
       </c>
       <c r="B274" t="n">
-        <v>5812.0</v>
+        <v>5374.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>12289.0</v>
+        <v>11890.0</v>
       </c>
       <c r="B275" t="n">
-        <v>5517.0</v>
+        <v>5369.0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>10906.0</v>
+        <v>10754.0</v>
       </c>
       <c r="B276" t="n">
-        <v>5011.0</v>
+        <v>5302.0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>10605.0</v>
+        <v>11011.0</v>
       </c>
       <c r="B277" t="n">
-        <v>4817.0</v>
+        <v>5113.0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>10916.0</v>
+        <v>11437.0</v>
       </c>
       <c r="B278" t="n">
-        <v>4713.0</v>
+        <v>5061.0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>9214.0</v>
+        <v>11291.0</v>
       </c>
       <c r="B279" t="n">
-        <v>4695.0</v>
+        <v>5104.0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>8179.0</v>
+        <v>11142.0</v>
       </c>
       <c r="B280" t="n">
-        <v>4973.0</v>
+        <v>5189.0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>12096.0</v>
+        <v>12397.0</v>
       </c>
       <c r="B281" t="n">
-        <v>5097.0</v>
+        <v>5265.0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>7582.0</v>
+        <v>10593.0</v>
       </c>
       <c r="B282" t="n">
-        <v>5008.0</v>
+        <v>5189.0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>10775.0</v>
+        <v>11655.0</v>
       </c>
       <c r="B283" t="n">
-        <v>4830.0</v>
+        <v>5183.0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>10185.0</v>
+        <v>10755.0</v>
       </c>
       <c r="B284" t="n">
-        <v>4481.0</v>
+        <v>5022.0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>10185.0</v>
+        <v>11076.0</v>
       </c>
       <c r="B285" t="n">
-        <v>4398.0</v>
+        <v>4932.0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>8514.0</v>
+        <v>11335.0</v>
       </c>
       <c r="B286" t="n">
-        <v>4494.0</v>
+        <v>5030.0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>7577.0</v>
+        <v>11047.0</v>
       </c>
       <c r="B287" t="n">
-        <v>4549.0</v>
+        <v>5137.0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>10857.0</v>
+        <v>11912.0</v>
       </c>
       <c r="B288" t="n">
-        <v>4533.0</v>
+        <v>5061.0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>9776.0</v>
+        <v>10939.0</v>
       </c>
       <c r="B289" t="n">
-        <v>4409.0</v>
+        <v>5019.0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>10104.0</v>
+        <v>11118.0</v>
       </c>
       <c r="B290" t="n">
-        <v>4537.0</v>
+        <v>5217.0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>10444.0</v>
+        <v>11429.0</v>
       </c>
       <c r="B291" t="n">
-        <v>4375.0</v>
+        <v>5027.0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>10801.0</v>
+        <v>11707.0</v>
       </c>
       <c r="B292" t="n">
-        <v>4322.0</v>
+        <v>4951.0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>8854.0</v>
+        <v>12357.0</v>
       </c>
       <c r="B293" t="n">
-        <v>4509.0</v>
+        <v>5094.0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>8280.0</v>
+        <v>12434.0</v>
       </c>
       <c r="B294" t="n">
-        <v>4828.0</v>
+        <v>5307.0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>11733.0</v>
+        <v>12174.0</v>
       </c>
       <c r="B295" t="n">
-        <v>4795.0</v>
+        <v>5498.0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>10700.0</v>
+        <v>11321.0</v>
       </c>
       <c r="B296" t="n">
-        <v>4688.0</v>
+        <v>5220.0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>10475.0</v>
+        <v>11580.0</v>
       </c>
       <c r="B297" t="n">
-        <v>4619.0</v>
+        <v>5242.0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>10866.0</v>
+        <v>11799.0</v>
       </c>
       <c r="B298" t="n">
-        <v>4675.0</v>
+        <v>5196.0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>11305.0</v>
+        <v>11813.0</v>
       </c>
       <c r="B299" t="n">
-        <v>4677.0</v>
+        <v>5131.0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>9508.0</v>
+        <v>12618.0</v>
       </c>
       <c r="B300" t="n">
-        <v>4795.0</v>
+        <v>5295.0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>8613.0</v>
+        <v>12656.0</v>
       </c>
       <c r="B301" t="n">
-        <v>5156.0</v>
+        <v>5415.0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>12207.0</v>
+        <v>12384.0</v>
       </c>
       <c r="B302" t="n">
-        <v>5231.0</v>
+        <v>5378.0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>10844.0</v>
+        <v>11516.0</v>
       </c>
       <c r="B303" t="n">
-        <v>5052.0</v>
+        <v>5375.0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>10988.0</v>
+        <v>11691.0</v>
       </c>
       <c r="B304" t="n">
-        <v>4846.0</v>
+        <v>5516.0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>9114.0</v>
+        <v>9069.0</v>
       </c>
       <c r="B305" t="n">
-        <v>5042.0</v>
+        <v>5232.0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>9617.0</v>
+        <v>9201.0</v>
       </c>
       <c r="B306" t="n">
-        <v>4764.0</v>
+        <v>5183.0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>7706.0</v>
+        <v>12512.0</v>
       </c>
       <c r="B307" t="n">
-        <v>4727.0</v>
+        <v>5158.0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>7908.0</v>
+        <v>10914.0</v>
       </c>
       <c r="B308" t="n">
-        <v>4796.0</v>
+        <v>4794.0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>8924.0</v>
+        <v>8244.0</v>
       </c>
       <c r="B309" t="n">
-        <v>4572.0</v>
+        <v>4547.0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>7698.0</v>
+        <v>7428.0</v>
       </c>
       <c r="B310" t="n">
-        <v>4282.0</v>
+        <v>4643.0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>7279.0</v>
+        <v>7280.0</v>
       </c>
       <c r="B311" t="n">
-        <v>3969.0</v>
+        <v>4464.0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>7435.0</v>
+        <v>7282.0</v>
       </c>
       <c r="B312" t="n">
-        <v>3693.0</v>
+        <v>3806.0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>7406.0</v>
+        <v>6833.0</v>
       </c>
       <c r="B313" t="n">
-        <v>3467.0</v>
+        <v>3557.0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>5541.0</v>
+        <v>8386.0</v>
       </c>
       <c r="B314" t="n">
-        <v>3377.0</v>
+        <v>3492.0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>5897.0</v>
+        <v>7783.0</v>
       </c>
       <c r="B315" t="n">
-        <v>3611.0</v>
+        <v>3431.0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>5501.0</v>
+        <v>6911.0</v>
       </c>
       <c r="B316" t="n">
-        <v>3484.0</v>
+        <v>3258.0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>6482.0</v>
+        <v>6056.0</v>
       </c>
       <c r="B317" t="n">
-        <v>3030.0</v>
+        <v>3190.0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>5676.0</v>
+        <v>5333.0</v>
       </c>
       <c r="B318" t="n">
-        <v>3033.0</v>
+        <v>3058.0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>5497.0</v>
+        <v>5519.0</v>
       </c>
       <c r="B319" t="n">
-        <v>2692.0</v>
+        <v>2997.0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>5628.0</v>
+        <v>5472.0</v>
       </c>
       <c r="B320" t="n">
-        <v>2625.0</v>
+        <v>2693.0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>4295.0</v>
+        <v>5866.0</v>
       </c>
       <c r="B321" t="n">
-        <v>2462.0</v>
+        <v>2579.0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>4802.0</v>
+        <v>5806.0</v>
       </c>
       <c r="B322" t="n">
-        <v>2472.0</v>
+        <v>2463.0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>5818.0</v>
+        <v>5351.0</v>
       </c>
       <c r="B323" t="n">
-        <v>2549.0</v>
+        <v>2496.0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>5291.0</v>
+        <v>4839.0</v>
       </c>
       <c r="B324" t="n">
-        <v>2474.0</v>
+        <v>2414.0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>5468.0</v>
+        <v>4912.0</v>
       </c>
       <c r="B325" t="n">
-        <v>2453.0</v>
+        <v>2388.0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>5520.0</v>
+        <v>4884.0</v>
       </c>
       <c r="B326" t="n">
-        <v>2378.0</v>
+        <v>2295.0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>5619.0</v>
+        <v>4980.0</v>
       </c>
       <c r="B327" t="n">
-        <v>2377.0</v>
+        <v>2199.0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>4419.0</v>
+        <v>5666.0</v>
       </c>
       <c r="B328" t="n">
-        <v>2325.0</v>
+        <v>2221.0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>4721.0</v>
+        <v>5294.0</v>
       </c>
       <c r="B329" t="n">
-        <v>2503.0</v>
+        <v>2201.0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>5863.0</v>
+        <v>4914.0</v>
       </c>
       <c r="B330" t="n">
-        <v>2570.0</v>
+        <v>2201.0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>5220.0</v>
+        <v>4627.0</v>
       </c>
       <c r="B331" t="n">
-        <v>2359.0</v>
+        <v>2324.0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>5399.0</v>
+        <v>4650.0</v>
       </c>
       <c r="B332" t="n">
-        <v>2422.0</v>
+        <v>2173.0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>5476.0</v>
+        <v>4718.0</v>
       </c>
       <c r="B333" t="n">
-        <v>2474.0</v>
+        <v>2121.0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>5572.0</v>
+        <v>4645.0</v>
       </c>
       <c r="B334" t="n">
-        <v>2250.0</v>
+        <v>1912.0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>4695.0</v>
+        <v>5259.0</v>
       </c>
       <c r="B335" t="n">
-        <v>2348.0</v>
+        <v>1994.0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>4811.0</v>
+        <v>5163.0</v>
       </c>
       <c r="B336" t="n">
-        <v>2504.0</v>
+        <v>2005.0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>4412.0</v>
+        <v>3611.0</v>
       </c>
       <c r="B337" t="n">
-        <v>2498.0</v>
+        <v>2087.0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>4203.0</v>
+        <v>3463.0</v>
       </c>
       <c r="B338" t="n">
-        <v>2355.0</v>
+        <v>2097.0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>3766.0</v>
+        <v>3276.0</v>
       </c>
       <c r="B339" t="n">
-        <v>2237.0</v>
+        <v>2011.0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>3617.0</v>
+        <v>3176.0</v>
       </c>
       <c r="B340" t="n">
-        <v>2087.0</v>
+        <v>1809.0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>3250.0</v>
+        <v>3031.0</v>
       </c>
       <c r="B341" t="n">
-        <v>1865.0</v>
+        <v>1562.0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>3230.0</v>
+        <v>3490.0</v>
       </c>
       <c r="B342" t="n">
-        <v>1692.0</v>
+        <v>1409.0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>2981.0</v>
+        <v>3313.0</v>
       </c>
       <c r="B343" t="n">
-        <v>1557.0</v>
+        <v>1368.0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>2849.0</v>
+        <v>2634.0</v>
       </c>
       <c r="B344" t="n">
-        <v>1532.0</v>
+        <v>1260.0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2842.0</v>
+        <v>2469.0</v>
       </c>
       <c r="B345" t="n">
-        <v>1401.0</v>
+        <v>1325.0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2804.0</v>
+        <v>2400.0</v>
       </c>
       <c r="B346" t="n">
-        <v>1407.0</v>
+        <v>1209.0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2716.0</v>
+        <v>2309.0</v>
       </c>
       <c r="B347" t="n">
-        <v>1278.0</v>
+        <v>1063.0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2619.0</v>
+        <v>2398.0</v>
       </c>
       <c r="B348" t="n">
-        <v>1285.0</v>
+        <v>1034.0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2610.0</v>
+        <v>2723.0</v>
       </c>
       <c r="B349" t="n">
-        <v>1227.0</v>
+        <v>1039.0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2579.0</v>
+        <v>2610.0</v>
       </c>
       <c r="B350" t="n">
-        <v>1197.0</v>
+        <v>1016.0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>2564.0</v>
+        <v>2173.0</v>
       </c>
       <c r="B351" t="n">
-        <v>1138.0</v>
+        <v>969.0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2527.0</v>
+        <v>2140.0</v>
       </c>
       <c r="B352" t="n">
-        <v>1088.0</v>
+        <v>990.0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>2536.0</v>
+        <v>2154.0</v>
       </c>
       <c r="B353" t="n">
-        <v>1060.0</v>
+        <v>1005.0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>2600.0</v>
+        <v>2216.0</v>
       </c>
       <c r="B354" t="n">
-        <v>1124.0</v>
+        <v>919.0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2469.0</v>
+        <v>2139.0</v>
       </c>
       <c r="B355" t="n">
-        <v>1087.0</v>
+        <v>910.0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>2499.0</v>
+        <v>2557.0</v>
       </c>
       <c r="B356" t="n">
-        <v>1032.0</v>
+        <v>866.0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>2454.0</v>
+        <v>2458.0</v>
       </c>
       <c r="B357" t="n">
-        <v>1119.0</v>
+        <v>926.0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>2539.0</v>
+        <v>2184.0</v>
       </c>
       <c r="B358" t="n">
-        <v>1035.0</v>
+        <v>930.0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>2518.0</v>
+        <v>2173.0</v>
       </c>
       <c r="B359" t="n">
-        <v>1059.0</v>
+        <v>872.0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>2415.0</v>
+        <v>2153.0</v>
       </c>
       <c r="B360" t="n">
-        <v>1073.0</v>
+        <v>908.0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>2435.0</v>
+        <v>2065.0</v>
       </c>
       <c r="B361" t="n">
-        <v>1113.0</v>
+        <v>850.0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>2575.0</v>
+        <v>1899.0</v>
       </c>
       <c r="B362" t="n">
-        <v>1053.0</v>
+        <v>797.0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>2522.0</v>
+        <v>2235.0</v>
       </c>
       <c r="B363" t="n">
-        <v>1045.0</v>
+        <v>896.0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>2542.0</v>
+        <v>2103.0</v>
       </c>
       <c r="B364" t="n">
-        <v>1073.0</v>
+        <v>931.0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>2476.0</v>
+        <v>1801.0</v>
       </c>
       <c r="B365" t="n">
-        <v>1008.0</v>
+        <v>885.0</v>
       </c>
     </row>
   </sheetData>
